--- a/public/preprocessing/@muhsinlabib.xlsx
+++ b/public/preprocessing/@muhsinlabib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,30 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17444</v>
+        <v>28213</v>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post truth menciptakan society yang agresif garang dan serba tahu bullying viralitas like dan unlike adalah pen</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['post', 'truth', 'menciptakan', 'society', 'yang', 'agresif', 'garang', 'dan', 'serba', 'tahu', 'bullying', 'viralitas', 'like', 'dan', 'unlike', 'adalah', 'pen']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['post', 'truth', 'menciptakan', 'masyarakat', 'yang', 'agresif', 'garang', 'dan', 'serba', 'tahu', 'bullying', 'viralitas', 'like', 'dan', 'unlike', 'adalah', 'ingin']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['post', 'truth', 'menciptakan', 'masyarakat', 'agresif', 'garang', 'serba', 'bullying', 'viralitas', 'like', 'unlike']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['post', 'truth', 'cipta', 'masyarakat', 'agresif', 'garang', 'serba', 'bullying', 'viralitas', 'like', 'unlike']</t>
         </is>
       </c>
     </row>
@@ -507,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17445</v>
+        <v>28214</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dunia saat ini seperti akhirat harihari ini bila seseorang mengeluhkan kesulitan ekonomi kepada seseorang seperti</t>
+          <t>dua arus kuat mempolarisasi umat post truth penikmat delusi matrix dan pecandu relijiusitas robotik</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dunia', 'saat', 'ini', 'seperti', 'akhirat', 'harihari', 'ini', 'bila', 'seseorang', 'mengeluhkan', 'kesulitan', 'ekonomi', 'kepada', 'seseorang', 'seperti']</t>
+          <t>['dua', 'arus', 'kuat', 'mempolarisasi', 'umat', 'post', 'truth', 'penikmat', 'delusi', 'matrix', 'dan', 'pecandu', 'relijiusitas', 'robotik']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['dua', 'arus', 'kuat', 'mempolarisasi', 'umat', 'post', 'truth', 'penikmat', 'delusi', 'matrix', 'dan', 'pecandu', 'relijiusitas', 'robotik']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['dunia', 'akhirat', 'harihari', 'mengeluhkan', 'kesulitan', 'ekonomi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dunia', 'akhirat', 'harihari', 'keluh', 'sulit', 'ekonomi']</t>
+          <t>['arus', 'kuat', 'mempolarisasi', 'umat', 'post', 'truth', 'penikmat', 'delusi', 'matrix', 'pecandu', 'relijiusitas', 'robotik']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['arus', 'kuat', 'polarisasi', 'umat', 'post', 'truth', 'nikmat', 'delusi', 'matrix', 'candu', 'relijiusitas', 'robotik']</t>
         </is>
       </c>
     </row>
@@ -543,30 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17446</v>
+        <v>28215</v>
       </c>
       <c r="C4" t="n">
-        <v>216</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lalu agama di mana bagaimana nasib anjurananjuran meraih pahala hanya klise dan bagian dari proyeksi clickbait</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lalu', 'agama', 'di', 'mana', 'bagaimana', 'nasib', 'anjurananjuran', 'meraih', 'pahala', 'hanya', 'klise', 'dan', 'bagian', 'dari', 'proyeksi', 'clickbait']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['lalu', 'agama', 'di', 'mana', 'bagaimana', 'nasib', 'anjurananjuran', 'meraih', 'pahala', 'hanya', 'klise', 'dan', 'bagian', 'dari', 'proyeksi', 'clickbait']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['agama', 'nasib', 'anjurananjuran', 'meraih', 'pahala', 'klise', 'proyeksi', 'clickbait']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['agama', 'nasib', 'anjurananjuran', 'raih', 'pahala', 'klise', 'proyeksi', 'clickbait']</t>
         </is>
       </c>
     </row>
@@ -575,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17447</v>
+        <v>28216</v>
       </c>
       <c r="C5" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kejumudan lurus dalam berteori muter dalam bertindak abai saat argumentasi mumet saat konklusi menggemari cand</t>
+          <t>tak ada lagi norma pakem dalam etika yang terjadi adalah kompetisi menjadi influencer kegenitan menggantikan kep</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kejumudan', 'lurus', 'dalam', 'berteori', 'muter', 'dalam', 'bertindak', 'abai', 'saat', 'argumentasi', 'mumet', 'saat', 'konklusi', 'menggemari', 'cand']</t>
+          <t>['tak', 'ada', 'lagi', 'norma', 'pakem', 'dalam', 'etika', 'yang', 'terjadi', 'adalah', 'kompetisi', 'menjadi', 'influencer', 'kegenitan', 'menggantikan', 'kep']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['tak', 'ada', 'lagi', 'norma', 'pakem', 'dalam', 'etika', 'yang', 'terjadi', 'adalah', 'kompetisi', 'menjadi', 'influencer', 'kegenitan', 'menggantikan', 'kep']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kejumudan', 'lurus', 'berteori', 'muter', 'bertindak', 'abai', 'argumentasi', 'mumet', 'konklusi', 'menggemari', 'cand']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['jumud', 'lurus', 'teori', 'muter', 'tindak', 'abai', 'argumentasi', 'mumet', 'konklusi', 'gari', 'cand']</t>
+          <t>['norma', 'pakem', 'etika', 'kompetisi', 'influencer', 'kegenitan', 'menggantikan', 'kep']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['norma', 'pakem', 'etika', 'kompetisi', 'influencer', 'genit', 'ganti', 'kep']</t>
         </is>
       </c>
     </row>
@@ -611,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17448</v>
+        <v>28217</v>
       </c>
       <c r="C6" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">cermin yang terlihat baik pada dirinya oleh dirimu adalah dirimu yang terlihat buruk pada dirinya oleh dirimu </t>
+          <t>posttruth mendorong siapapun untuk berekspresi dan merespon terhadap apapun inilah yang disebut matinya kepakaran oleh tom nichols</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['cermin', 'yang', 'terlihat', 'baik', 'pada', 'dirinya', 'oleh', 'dirimu', 'adalah', 'dirimu', 'yang', 'terlihat', 'buruk', 'pada', 'dirinya', 'oleh', 'dirimu']</t>
+          <t>['posttruth', 'mendorong', 'siapapun', 'untuk', 'berekspresi', 'dan', 'merespon', 'terhadap', 'apapun', 'inilah', 'yang', 'disebut', 'matinya', 'kepakaran', 'oleh', 'tom', 'nichols']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 17 outcomes&gt;</t>
+          <t>['posttruth', 'mendorong', 'siapapun', 'untuk', 'berekspresi', 'dan', 'menjawab', 'terhadap', 'apapun', 'inilah', 'yang', 'disebut', 'matinya', 'kepakaran', 'oleh', 'tom', 'nichols']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['cermin', 'dirimu', 'dirimu', 'buruk', 'dirimu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['cermin', 'diri', 'diri', 'buruk', 'diri']</t>
+          <t>['posttruth', 'mendorong', 'berekspresi', 'apapun', 'matinya', 'kepakaran', 'tom', 'nichols']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['posttruth', 'dorong', 'ekspres', 'apa', 'mati', 'pakar', 'tom', 'nichols']</t>
         </is>
       </c>
     </row>
@@ -647,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17449</v>
+        <v>28218</v>
       </c>
       <c r="C7" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>yang cedera di lapangan dan yang teriak daritribun</t>
+          <t>yang menakjubkan adalah fenomena banyaknya orang tak tahu tentang suatu perkara tapi berani berpendapat ngotot me</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['yang', 'cedera', 'di', 'lapangan', 'dan', 'yang', 'teriak', 'daritribun']</t>
+          <t>['yang', 'menakjubkan', 'adalah', 'fenomena', 'banyaknya', 'orang', 'tak', 'tahu', 'tentang', 'suatu', 'perkara', 'tapi', 'berani', 'berpendapat', 'ngotot', 'me']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['yang', 'menakjubkan', 'adalah', 'fenomena', 'banyaknya', 'orang', 'tak', 'tahu', 'tentang', 'suatu', 'perkara', 'tapi', 'berani', 'berpendapat', 'mengotot', 'me']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['cedera', 'lapangan', 'teriak', 'daritribun']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['cedera', 'lapang', 'teriak', 'daritribun']</t>
+          <t>['menakjubkan', 'fenomena', 'banyaknya', 'orang', 'perkara', 'berani', 'berpendapat', 'mengotot', 'me']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['takjub', 'fenomena', 'banyak', 'orang', 'perkara', 'berani', 'dapat', 'otot', 'me']</t>
         </is>
       </c>
     </row>
@@ -683,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17450</v>
+        <v>28219</v>
       </c>
       <c r="C8" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>iman kebangsaan dan teologikemanusiaan</t>
+          <t>di era serba visual kebodohan karena dimanage tak terlihat sebagai kebodohan justru hal serius dan logis terkesan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
+          <t>['di', 'era', 'serba', 'visual', 'kebodohan', 'karena', 'dimanage', 'tak', 'terlihat', 'sebagai', 'kebodohan', 'justru', 'hal', 'serius', 'dan', 'logis', 'terkesan']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['di', 'era', 'serba', 'visual', 'kebodohan', 'karena', 'dimanage', 'tak', 'terlihat', 'sebagai', 'kebodohan', 'justru', 'hal', 'serius', 'dan', 'logis', 'terkesan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['iman', 'kebangsaan', 'teologikemanusiaan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['iman', 'bangsa', 'teologikemanusiaan']</t>
+          <t>['era', 'serba', 'visual', 'kebodohan', 'dimanage', 'kebodohan', 'serius', 'logis', 'terkesan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['era', 'serba', 'visual', 'bodoh', 'dimanage', 'bodoh', 'serius', 'logis', 'kes']</t>
         </is>
       </c>
     </row>
@@ -719,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17451</v>
+        <v>28220</v>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>percaya</t>
+          <t>penyebab tercantumnya kisahkisah tak logis dalam bukubuku hadis dan sejarah itu adalah tidak meyakini kesucian se</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['percaya']</t>
+          <t>['penyebab', 'tercantumnya', 'kisahkisah', 'tak', 'logis', 'dalam', 'bukubuku', 'hadis', 'dan', 'sejarah', 'itu', 'adalah', 'tidak', 'meyakini', 'kesucian', 'se']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['penyebab', 'tercantumnya', 'kisahkisah', 'tak', 'logis', 'dalam', 'bukubuku', 'hadis', 'dan', 'sejarah', 'itu', 'adalah', 'tidak', 'meyakini', 'kesucian', 'se']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['percaya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['percaya']</t>
+          <t>['penyebab', 'tercantumnya', 'kisahkisah', 'logis', 'bukubuku', 'hadis', 'sejarah', 'kesucian']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['sebab', 'cantum', 'kisahkisah', 'logis', 'bukubuku', 'hadis', 'sejarah', 'suci']</t>
         </is>
       </c>
     </row>
@@ -755,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17452</v>
+        <v>28221</v>
       </c>
       <c r="C10" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sensasi imajinasi daninteleksi</t>
+          <t>dalam minhaj alsunnah jilid diceritakan bahwa saat shalat wajib empat rakaat nabi lupa menunaikannya dengan jum</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
+          <t>['dalam', 'minhaj', 'alsunnah', 'jilid', 'diceritakan', 'bahwa', 'saat', 'shalat', 'wajib', 'empat', 'rakaat', 'nabi', 'lupa', 'menunaikannya', 'dengan', 'jum']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dalam', 'minhaj', 'alsunnah', 'jilid', 'diceritakan', 'bahwa', 'saat', 'salat', 'wajib', 'empat', 'rakaat', 'nabi', 'lupa', 'menunaikannya', 'dengan', 'jum']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
+          <t>['minhaj', 'alsunnah', 'jilid', 'diceritakan', 'salat', 'wajib', 'rakaat', 'nabi', 'lupa', 'menunaikannya', 'jum']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['minhaj', 'alsunnah', 'jilid', 'cerita', 'salat', 'wajib', 'rakaat', 'nabi', 'lupa', 'tunai', 'jum']</t>
         </is>
       </c>
     </row>
@@ -791,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17453</v>
+        <v>28222</v>
       </c>
       <c r="C11" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>be happy</t>
+          <t xml:space="preserve">salah satu kisah yang popular adalah peristiwa nabi saw lupa jumlah rakaat shalat kitab almuwattha karya imam </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['be', 'happy']</t>
+          <t>['salah', 'satu', 'kisah', 'yang', 'popular', 'adalah', 'peristiwa', 'nabi', 'saw', 'lupa', 'jumlah', 'rakaat', 'shalat', 'kitab', 'almuwattha', 'karya', 'imam']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['salah', 'satu', 'kisah', 'yang', 'popular', 'adalah', 'peristiwa', 'nabi', 'saw', 'lupa', 'jumlah', 'rakaat', 'salat', 'kitab', 'almuwattha', 'karya', 'imam']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['be', 'happy']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['be', 'happy']</t>
+          <t>['salah', 'kisah', 'popular', 'peristiwa', 'nabi', 'saw', 'lupa', 'rakaat', 'salat', 'kitab', 'almuwattha', 'karya', 'imam']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['salah', 'kisah', 'popular', 'peristiwa', 'nabi', 'saw', 'lupa', 'rakaat', 'salat', 'kitab', 'almuwattha', 'karya', 'imam']</t>
         </is>
       </c>
     </row>
@@ -827,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17454</v>
+        <v>28223</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pamrihlah dalam keburukan karena kalau tulus pasti tak dapat pahala</t>
+          <t>sebagian dari kisahkisah yang kerap jadi bahan ceramah dan khotbah itulah yang selalu dijadikan dasat untuk mengol</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['pamrihlah', 'dalam', 'keburukan', 'karena', 'kalau', 'tulus', 'pasti', 'tak', 'dapat', 'pahala']</t>
+          <t>['sebagian', 'dari', 'kisahkisah', 'yang', 'kerap', 'jadi', 'bahan', 'ceramah', 'dan', 'khotbah', 'itulah', 'yang', 'selalu', 'dijadikan', 'dasat', 'untuk', 'mengol']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sebagian', 'dari', 'kisahkisah', 'yang', 'kerap', 'jadi', 'bahan', 'ceramah', 'dan', 'khotbah', 'itulah', 'yang', 'selalu', 'dijadikan', 'dasat', 'untuk', 'mengol']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['pamrihlah', 'keburukan', 'tulus', 'pahala']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['pamrih', 'keburu', 'tulus', 'pahala']</t>
+          <t>['kisahkisah', 'kerap', 'bahan', 'ceramah', 'khotbah', 'dijadikan', 'dasat', 'mengol']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['kisahkisah', 'kerap', 'bahan', 'ceramah', 'khotbah', 'jadi', 'dasat', 'kol']</t>
         </is>
       </c>
     </row>
@@ -863,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17455</v>
+        <v>28224</v>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>hak memilih sesat</t>
+          <t>info ajaran agama tak mesti atau belum tentu ajaran agama karena diturunkan untuk hewan yang berakal ajaran agama</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['hak', 'memilih', 'sesat']</t>
+          <t>['info', 'ajaran', 'agama', 'tak', 'mesti', 'atau', 'belum', 'tentu', 'ajaran', 'agama', 'karena', 'diturunkan', 'untuk', 'hewan', 'yang', 'berakal', 'ajaran', 'agama']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['info', 'ajaran', 'agama', 'tak', 'mesti', 'atau', 'belum', 'tentu', 'ajaran', 'agama', 'karena', 'diturunkan', 'untuk', 'hewan', 'yang', 'berakal', 'ajaran', 'agama']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['hak', 'memilih', 'sesat']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['hak', 'pilih', 'sesat']</t>
+          <t>['info', 'ajaran', 'agama', 'mesti', 'ajaran', 'agama', 'diturunkan', 'hewan', 'berakal', 'ajaran', 'agama']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['info', 'ajar', 'agama', 'mesti', 'ajar', 'agama', 'turun', 'hewan', 'akal', 'ajar', 'agama']</t>
         </is>
       </c>
     </row>
@@ -899,30 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17456</v>
+        <v>28225</v>
       </c>
       <c r="C14" t="n">
-        <v>216</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mungkin setengah dari infoinfo berupa teks tentang ajaran agama yang disisipkan dalam bukubuku rujukan utama te</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mungkin', 'setengah', 'dari', 'infoinfo', 'berupa', 'teks', 'tentang', 'ajaran', 'agama', 'yang', 'disisipkan', 'dalam', 'bukubuku', 'rujukan', 'utama', 'te']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mungkin', 'setengah', 'dari', 'infoinfo', 'berupa', 'teks', 'tentang', 'ajaran', 'agama', 'yang', 'disisipkan', 'dalam', 'bukubuku', 'rujukan', 'utama', 'te']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['infoinfo', 'teks', 'ajaran', 'agama', 'disisipkan', 'bukubuku', 'rujukan', 'utama', 'te']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['infoinfo', 'teks', 'ajar', 'agama', 'sisip', 'bukubuku', 'rujuk', 'utama', 'te']</t>
         </is>
       </c>
     </row>
@@ -931,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17457</v>
+        <v>28226</v>
       </c>
       <c r="C15" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>iman kebangsaan dan teologikemanusiaan</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
+          <t>['watch']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['watch']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['iman', 'kebangsaan', 'teologikemanusiaan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['iman', 'bangsa', 'teologikemanusiaan']</t>
+          <t>['watch']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['watch']</t>
         </is>
       </c>
     </row>
@@ -967,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17458</v>
+        <v>28227</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>terkurung dalam ruang bagian</t>
+          <t>sdh jelas bila mengganggu tak terhitung zikir</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['terkurung', 'dalam', 'ruang', 'bagian']</t>
+          <t>['sdh', 'jelas', 'bila', 'mengganggu', 'tak', 'terhitung', 'zikir']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sudah', 'jelas', 'bila', 'mengganggu', 'tak', 'terhitung', 'zikir']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['terkurung', 'ruang']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['kurung', 'ruang']</t>
+          <t>['mengganggu', 'terhitung', 'zikir']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['ganggu', 'hitung', 'zikir']</t>
         </is>
       </c>
     </row>
@@ -1003,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17459</v>
+        <v>28228</v>
       </c>
       <c r="C17" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>imunisasi internal</t>
+          <t>sekelumit sejarah perjuangan dan kesyahidan imam musakazhim</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['imunisasi', 'internal']</t>
+          <t>['sekelumit', 'sejarah', 'perjuangan', 'dan', 'kesyahidan', 'imam', 'musakazhim']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sekelumit', 'sejarah', 'perjuangan', 'dan', 'kesyahidan', 'imam', 'musakazhim']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['imunisasi', 'internal']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['imunisasi', 'internal']</t>
+          <t>['sekelumit', 'sejarah', 'perjuangan', 'kesyahidan', 'imam', 'musakazhim']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['kelumit', 'sejarah', 'juang', 'syahid', 'imam', 'musakazhim']</t>
         </is>
       </c>
     </row>
@@ -1039,30 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17460</v>
+        <v>28229</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>tak ada hadisnya</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tak', 'ada', 'hadisnya']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tak', 'ada', 'hadisnya']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hadisnya']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['hadis']</t>
         </is>
       </c>
     </row>
@@ -1071,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17461</v>
+        <v>28230</v>
       </c>
       <c r="C19" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>berada di puncak ketenaran satu dari ikon intelektualisme islam di indonesia dengan sederet keunggul</t>
+          <t>anatisme politik</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['berada', 'di', 'puncak', 'ketenaran', 'satu', 'dari', 'ikon', 'intelektualisme', 'islam', 'di', 'indonesia', 'dengan', 'sederet', 'keunggul']</t>
+          <t>['anatisme', 'politik']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['anatisme', 'politik']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['puncak', 'ketenaran', 'ikon', 'intelektualisme', 'islam', 'indonesia', 'sederet', 'keunggul']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['puncak', 'tenar', 'ikon', 'intelektualisme', 'islam', 'indonesia', 'deret', 'unggul']</t>
+          <t>['anatisme', 'politik']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['anatisme', 'politik']</t>
         </is>
       </c>
     </row>
@@ -1107,30 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17462</v>
+        <v>28231</v>
       </c>
       <c r="C20" t="n">
-        <v>216</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>guilty feeling</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['guilty', 'feeling']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['guilty', 'feeling']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['guilty', 'feeling']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['guilty', 'feeling']</t>
         </is>
       </c>
     </row>
@@ -1139,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17463</v>
+        <v>28232</v>
       </c>
       <c r="C21" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>makin modern makin percaya ramalan dunia jungkir balik</t>
+          <t>perpres investasi miras</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['makin', 'modern', 'makin', 'percaya', 'ramalan', 'dunia', 'jungkir', 'balik']</t>
+          <t>['perpres', 'investasi', 'miras']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['peraturan, presiden', 'investasi', 'minuman, keras']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['modern', 'percaya', 'ramalan', 'dunia', 'jungkir']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['modern', 'percaya', 'ramal', 'dunia', 'jungkir']</t>
+          <t>['peraturan, presiden', 'investasi', 'minuman, keras']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['atur presiden', 'investasi', 'minum keras']</t>
         </is>
       </c>
     </row>
@@ -1175,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17464</v>
+        <v>28233</v>
       </c>
       <c r="C22" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>beberapa waktu lalu bakteri hanya menyerang orangorang kelas alit yang hanya menyantap makanan alot kini orango</t>
+          <t>mengetahui tak mestimengimani</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['beberapa', 'waktu', 'lalu', 'bakteri', 'hanya', 'menyerang', 'orangorang', 'kelas', 'alit', 'yang', 'hanya', 'menyantap', 'makanan', 'alot', 'kini', 'orango']</t>
+          <t>['mengetahui', 'tak', 'mestimengimani']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['mengetahui', 'tak', 'mestimengimani']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['bakteri', 'menyerang', 'orangorang', 'kelas', 'alit', 'menyantap', 'makanan', 'alot', 'orango']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['bakteri', 'serang', 'orangorang', 'kelas', 'alit', 'santap', 'makan', 'alot', 'orango']</t>
+          <t>['mestimengimani']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['mestimengimani']</t>
         </is>
       </c>
     </row>
@@ -1211,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17465</v>
+        <v>28234</v>
       </c>
       <c r="C23" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>beberapa waktu lalu kecemasan adalah hak eksklusif kelompok yang lolos dari kemakmuran kini orangorang yang lolos</t>
+          <t>kristen katolik dan islamsyiah</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['beberapa', 'waktu', 'lalu', 'kecemasan', 'adalah', 'hak', 'eksklusif', 'kelompok', 'yang', 'lolos', 'dari', 'kemakmuran', 'kini', 'orangorang', 'yang', 'lolos']</t>
+          <t>['kristen', 'katolik', 'dan', 'islamsyiah']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['kristen', 'katolik', 'dan', 'islamsyiah']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kecemasan', 'hak', 'eksklusif', 'kelompok', 'lolos', 'kemakmuran', 'orangorang', 'lolos']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['cemas', 'hak', 'eksklusif', 'kelompok', 'lolos', 'makmur', 'orangorang', 'lolos']</t>
+          <t>['kristen', 'katolik', 'islamsyiah']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kristen', 'katolik', 'islamsyiah']</t>
         </is>
       </c>
     </row>
@@ -1247,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17466</v>
+        <v>28235</v>
       </c>
       <c r="C24" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>gong xi fa cai</t>
+          <t>memang</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['gong', 'xi', 'fa', 'cai']</t>
+          <t>['memang']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['memang']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['gong', 'xi', 'fa', 'cai']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['gong', 'xi', 'fa', 'cai']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1283,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17467</v>
+        <v>28236</v>
       </c>
       <c r="C25" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>semoga bulan rajab menjadi momentum titik balik menuju keadaan lebih baik bagi kita secara lahir dan batin</t>
+          <t>dialogue of the century</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['semoga', 'bulan', 'rajab', 'menjadi', 'momentum', 'titik', 'balik', 'menuju', 'keadaan', 'lebih', 'baik', 'bagi', 'kita', 'secara', 'lahir', 'dan', 'batin']</t>
+          <t>['dialogue', 'of', 'the', 'century']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dialogue', 'of', 'the', 'century']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['semoga', 'rajab', 'momentum', 'titik', 'lahir', 'batin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['moga', 'rajab', 'momentum', 'titik', 'lahir', 'batin']</t>
+          <t>['dialogue', 'of', 'the', 'century']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['dialogue', 'of', 'the', 'century']</t>
         </is>
       </c>
     </row>
@@ -1319,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17468</v>
+        <v>28237</v>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>siapapun dia dan apapun kesalahan yang dituduhkan terhadapnya kematian seorang tahanan adalah tragedi</t>
+          <t>paus fransiskus mendarat di irak semoga membawa perdamaian dan toleransi antara sesama</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['siapapun', 'dia', 'dan', 'apapun', 'kesalahan', 'yang', 'dituduhkan', 'terhadapnya', 'kematian', 'seorang', 'tahanan', 'adalah', 'tragedi']</t>
+          <t>['paus', 'fransiskus', 'mendarat', 'di', 'irak', 'semoga', 'membawa', 'perdamaian', 'dan', 'toleransi', 'antara', 'sesama']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['paus', 'fransiskus', 'mendarat', 'di', 'irak', 'semoga', 'membawa', 'perdamaian', 'dan', 'toleransi', 'antara', 'sesama']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['apapun', 'kesalahan', 'dituduhkan', 'kematian', 'tahanan', 'tragedi']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['apa', 'salah', 'tuduh', 'mati', 'tahan', 'tragedi']</t>
+          <t>['paus', 'fransiskus', 'mendarat', 'irak', 'semoga', 'membawa', 'perdamaian', 'toleransi']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['paus', 'fransiskus', 'darat', 'irak', 'moga', 'bawa', 'damai', 'toleransi']</t>
         </is>
       </c>
     </row>
@@ -1355,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17469</v>
+        <v>28238</v>
       </c>
       <c r="C27" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>setiap orang bisa menciptakan dunia sempit pengap dan bising yang hanya diisi orangorang yang sesuku seetnis se</t>
+          <t>andai para penolak vaksin berkumpul di satu daerah mungkin bisa lebih akrab saling barter percikan napas dan prose</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['setiap', 'orang', 'bisa', 'menciptakan', 'dunia', 'sempit', 'pengap', 'dan', 'bising', 'yang', 'hanya', 'diisi', 'orangorang', 'yang', 'sesuku', 'seetnis', 'se']</t>
+          <t>['andai', 'para', 'penolak', 'vaksin', 'berkumpul', 'di', 'satu', 'daerah', 'mungkin', 'bisa', 'lebih', 'akrab', 'saling', 'barter', 'percikan', 'napas', 'dan', 'prose']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['andai', 'para', 'penolak', 'vaksin', 'berkumpul', 'di', 'satu', 'daerah', 'mungkin', 'bisa', 'lebih', 'akrab', 'saling', 'barter', 'percikan', 'napas', 'dan', 'prose']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['orang', 'menciptakan', 'dunia', 'sempit', 'pengap', 'bising', 'diisi', 'orangorang', 'sesuku', 'seetnis']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['orang', 'cipta', 'dunia', 'sempit', 'pengap', 'bising', 'isi', 'orangorang', 'suku', 'etnis']</t>
+          <t>['andai', 'penolak', 'vaksin', 'berkumpul', 'daerah', 'akrab', 'barter', 'percikan', 'napas', 'prose']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['andai', 'tolak', 'vaksin', 'kumpul', 'daerah', 'akrab', 'barter', 'percik', 'napas', 'prose']</t>
         </is>
       </c>
     </row>
@@ -1391,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17470</v>
+        <v>28239</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>bisikan negatif</t>
+          <t>yang lebih berbahaya dari apa yang kamu takutkan adalah ketakutan itu sendiri imam ali</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['bisikan', 'negatif']</t>
+          <t>['yang', 'lebih', 'berbahaya', 'dari', 'apa', 'yang', 'kamu', 'takutkan', 'adalah', 'ketakutan', 'itu', 'sendiri', 'imam', 'ali']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['yang', 'lebih', 'berbahaya', 'dari', 'apa', 'yang', 'kamu', 'takutkan', 'adalah', 'ketakutan', 'itu', 'sendiri', 'imam', 'ali']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['bisikan', 'negatif']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['bisik', 'negatif']</t>
+          <t>['berbahaya', 'takutkan', 'ketakutan', 'imam', 'ali']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['bahaya', 'takut', 'takut', 'imam', 'ali']</t>
         </is>
       </c>
     </row>
@@ -1427,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17471</v>
+        <v>28240</v>
       </c>
       <c r="C29" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>memuji justru karena takmengikuti</t>
+          <t>inilah organisasi yang bertanggungjawab atas hancurnya kehidupan dan hilangnya ketenangan banyak warga akibat fatwa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['memuji', 'justru', 'karena', 'takmengikuti']</t>
+          <t>['inilah', 'organisasi', 'yang', 'bertanggungjawab', 'atas', 'hancurnya', 'kehidupan', 'dan', 'hilangnya', 'ketenangan', 'banyak', 'warga', 'akibat', 'fatwa']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['inilah', 'organisasi', 'yang', 'bertanggung, jawab', 'atas', 'hancurnya', 'kehidupan', 'dan', 'hilangnya', 'ketenangan', 'banyak', 'warga', 'akibat', 'fatwa']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['memuji', 'takmengikuti']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['puji', 'takmengikuti']</t>
+          <t>['organisasi', 'bertanggung, jawab', 'hancurnya', 'kehidupan', 'hilangnya', 'ketenangan', 'warga', 'akibat', 'fatwa']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['organisasi', 'tanggung jawab', 'hancur', 'hidup', 'hilang', 'tenang', 'warga', 'akibat', 'fatwa']</t>
         </is>
       </c>
     </row>
@@ -1463,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17472</v>
+        <v>28241</v>
       </c>
       <c r="C30" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>khumus dan ujiankonsistensi</t>
+          <t xml:space="preserve">entah bagaimana asal muasal ceritanya banyak orang termasuk sebagian pejabat memposisikannya seolah sebagai salah </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['khumus', 'dan', 'ujiankonsistensi']</t>
+          <t>['entah', 'bagaimana', 'asal', 'muasal', 'ceritanya', 'banyak', 'orang', 'termasuk', 'sebagian', 'pejabat', 'memposisikannya', 'seolah', 'sebagai', 'salah']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['entah', 'bagaimana', 'asal', 'muasal', 'ceritanya', 'banyak', 'orang', 'termasuk', 'sebagian', 'pejabat', 'memposisikannya', 'seolah', 'sebagai', 'salah']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['khumus', 'ujiankonsistensi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['khumus', 'ujiankonsistensi']</t>
+          <t>['muasal', 'ceritanya', 'orang', 'pejabat', 'memposisikannya', 'salah']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['muasal', 'cerita', 'orang', 'jabat', 'posisi', 'salah']</t>
         </is>
       </c>
     </row>
@@ -1499,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17473</v>
+        <v>28242</v>
       </c>
       <c r="C31" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>menolak poligami</t>
+          <t xml:space="preserve">inilah perkumpulan paling rajin memberikan tanggapan terhadap setiap fenomena bahkan yang sama sekali tak terkait </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['menolak', 'poligami']</t>
+          <t>['inilah', 'perkumpulan', 'paling', 'rajin', 'memberikan', 'tanggapan', 'terhadap', 'setiap', 'fenomena', 'bahkan', 'yang', 'sama', 'sekali', 'tak', 'terkait']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['inilah', 'perkumpulan', 'paling', 'rajin', 'memberikan', 'tanggapan', 'terhadap', 'setiap', 'fenomena', 'bahkan', 'yang', 'sama', 'sekali', 'tak', 'terkait']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['menolak', 'poligami']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['tolak', 'poligami']</t>
+          <t>['perkumpulan', 'rajin', 'tanggapan', 'fenomena', 'terkait']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kumpul', 'rajin', 'tanggap', 'fenomena', 'kait']</t>
         </is>
       </c>
     </row>
@@ -1535,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17474</v>
+        <v>28243</v>
       </c>
       <c r="C32" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>nasib minoritas aliran</t>
+          <t>dua kata yang tertempel pada hampir semua benda yang dijual di warung dan super market dari terasi sampai mesin cuc</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['nasib', 'minoritas', 'aliran']</t>
+          <t>['dua', 'kata', 'yang', 'tertempel', 'pada', 'hampir', 'semua', 'benda', 'yang', 'dijual', 'di', 'warung', 'dan', 'super', 'market', 'dari', 'terasi', 'sampai', 'mesin', 'cuc']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dua', 'kata', 'yang', 'tertempel', 'pada', 'hampir', 'semua', 'benda', 'yang', 'dijual', 'di', 'warung', 'dan', 'super', 'market', 'dari', 'terasi', 'sampai', 'mesin', 'cuc']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['nasib', 'minoritas', 'aliran']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['nasib', 'minoritas', 'alir']</t>
+          <t>['tertempel', 'benda', 'dijual', 'warung', 'super', 'market', 'terasi', 'mesin', 'cuc']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tempel', 'benda', 'jual', 'warung', 'super', 'market', 'terasi', 'mesin', 'cuc']</t>
         </is>
       </c>
     </row>
@@ -1571,34 +1751,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17475</v>
+        <v>28244</v>
       </c>
       <c r="C33" t="n">
-        <v>216</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ngaji manifesto</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ngaji', 'manifesto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ngaji', 'manifesto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ngaji', 'manifesto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1607,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17476</v>
+        <v>28245</v>
       </c>
       <c r="C34" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>orang kerdil tak membuktikan kebenaran keyakinannya dengan argumentasi tapi memfitnah mencemooh dan menyesatkan keyakinan lain</t>
+          <t>dalam demokrasi parlemen dan lembaga legislatif justru didirikan untuk mengkritik keputusan dan peraturan pemerinta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['orang', 'kerdil', 'tak', 'membuktikan', 'kebenaran', 'keyakinannya', 'dengan', 'argumentasi', 'tapi', 'memfitnah', 'mencemooh', 'dan', 'menyesatkan', 'keyakinan', 'lain']</t>
+          <t>['dalam', 'demokrasi', 'parlemen', 'dan', 'lembaga', 'legislatif', 'justru', 'didirikan', 'untuk', 'mengkritik', 'keputusan', 'dan', 'peraturan', 'pemerinta']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dalam', 'demokrasi', 'parlemen', 'dan', 'lembaga', 'legislatif', 'justru', 'didirikan', 'untuk', 'mengkritik', 'keputusan', 'dan', 'peraturan', 'pemerinta']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['orang', 'kerdil', 'membuktikan', 'kebenaran', 'keyakinannya', 'argumentasi', 'memfitnah', 'mencemooh', 'menyesatkan', 'keyakinan']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['orang', 'kerdil', 'bukti', 'benar', 'yakin', 'argumentasi', 'fitnah', 'cemooh', 'sesat', 'yakin']</t>
+          <t>['demokrasi', 'parlemen', 'lembaga', 'legislatif', 'didirikan', 'mengkritik', 'keputusan', 'peraturan', 'pemerinta']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'parlemen', 'lembaga', 'legislatif', 'diri', 'kritik', 'putus', 'atur', 'pemerinta']</t>
         </is>
       </c>
     </row>
@@ -1643,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17477</v>
+        <v>28246</v>
       </c>
       <c r="C35" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>orang pamrih menganggap kebaikannya sebagai piutang yang harus ditagihnya orang tulus menganggap kebaikannya sebag</t>
+          <t>terlepas dari pro dan kontra terhadap sebuah peraturan sikap lebay dan ekstrem menjadi fenomena lumrah terutama di</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['orang', 'pamrih', 'menganggap', 'kebaikannya', 'sebagai', 'piutang', 'yang', 'harus', 'ditagihnya', 'orang', 'tulus', 'menganggap', 'kebaikannya', 'sebag']</t>
+          <t>['terlepas', 'dari', 'pro', 'dan', 'kontra', 'terhadap', 'sebuah', 'peraturan', 'sikap', 'lebay', 'dan', 'ekstrem', 'menjadi', 'fenomena', 'lumrah', 'terutama', 'di']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
+          <t>['terlepas', 'dari', 'pro', 'dan', 'kontra', 'terhadap', 'sebuah', 'peraturan', 'sikap', 'lebay', 'dan', 'ekstrem', 'menjadi', 'fenomena', 'lumrah', 'terutama', 'di']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['orang', 'pamrih', 'menganggap', 'kebaikannya', 'piutang', 'ditagihnya', 'orang', 'tulus', 'menganggap', 'kebaikannya', 'sebag']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['orang', 'pamrih', 'anggap', 'baik', 'piutang', 'tagih', 'orang', 'tulus', 'anggap', 'baik', 'sebag']</t>
+          <t>['terlepas', 'pro', 'kontra', 'peraturan', 'sikap', 'lebay', 'ekstrem', 'fenomena', 'lumrah']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['lepas', 'pro', 'kontra', 'atur', 'sikap', 'lebay', 'ekstrem', 'fenomena', 'lumrah']</t>
         </is>
       </c>
     </row>
@@ -1679,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17478</v>
+        <v>28247</v>
       </c>
       <c r="C36" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>tertulis pada kaca belakang sebuah angkot tertulis</t>
+          <t>pemihakan dan dukungan irrasional hanya melahirkan intoleransi dan sikap ekstrem berupa pemutlakan sesuatu yang rel</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['tertulis', 'pada', 'kaca', 'belakang', 'sebuah', 'angkot', 'tertulis']</t>
+          <t>['pemihakan', 'dan', 'dukungan', 'irrasional', 'hanya', 'melahirkan', 'intoleransi', 'dan', 'sikap', 'ekstrem', 'berupa', 'pemutlakan', 'sesuatu', 'yang', 'rel']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['pemihakan', 'dan', 'dukungan', 'irrasional', 'hanya', 'melahirkan', 'intoleransi', 'dan', 'sikap', 'ekstrem', 'berupa', 'pemutlakan', 'sesuatu', 'yang', 'rel']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['tertulis', 'kaca', 'angkot', 'tertulis']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['tulis', 'kaca', 'angkot', 'tulis']</t>
+          <t>['pemihakan', 'dukungan', 'irrasional', 'melahirkan', 'intoleransi', 'sikap', 'ekstrem', 'pemutlakan', 'rel']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['pihak', 'dukung', 'irrasional', 'lahir', 'intoleransi', 'sikap', 'ekstrem', 'mutlak', 'rel']</t>
         </is>
       </c>
     </row>
@@ -1715,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17479</v>
+        <v>28248</v>
       </c>
       <c r="C37" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>langit dan bumi tak mampu menampungku namun hati seorang mukmin mampu menampungku hadis qudsi awali alali vol hal</t>
+          <t xml:space="preserve">pada faktanya subjektifnya pula kadang pemujaan kepada seseorang bukan buah kesadaran objektif tentang keunggulan </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['langit', 'dan', 'bumi', 'tak', 'mampu', 'menampungku', 'namun', 'hati', 'seorang', 'mukmin', 'mampu', 'menampungku', 'hadis', 'qudsi', 'awali', 'alali', 'vol', 'hal']</t>
+          <t>['pada', 'faktanya', 'subjektifnya', 'pula', 'kadang', 'pemujaan', 'kepada', 'seseorang', 'bukan', 'buah', 'kesadaran', 'objektif', 'tentang', 'keunggulan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['pada', 'faktanya', 'subjektifnya', 'pula', 'kadang', 'pemujaan', 'kepada', 'seseorang', 'bukan', 'buah', 'kesadaran', 'objektif', 'tentang', 'keunggulan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['langit', 'bumi', 'menampungku', 'hati', 'mukmin', 'menampungku', 'hadis', 'qudsi', 'awali', 'alali', 'vol']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['langit', 'bumi', 'tampung', 'hati', 'mukmin', 'tampung', 'hadis', 'qudsi', 'awal', 'alali', 'vol']</t>
+          <t>['faktanya', 'subjektifnya', 'kadang', 'pemujaan', 'buah', 'kesadaran', 'objektif', 'keunggulan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['fakta', 'subjektif', 'kadang', 'puja', 'buah', 'sadar', 'objektif', 'unggul']</t>
         </is>
       </c>
     </row>
@@ -1751,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17480</v>
+        <v>28249</v>
       </c>
       <c r="C38" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>common di kalangan rasional saja</t>
+          <t>pemihakan irrasional biasanya bersumber dari kebutuhan penguatan identitas pendukung dalam kelompok yang didukungny</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['common', 'di', 'kalangan', 'rasional', 'saja']</t>
+          <t>['pemihakan', 'irrasional', 'biasanya', 'bersumber', 'dari', 'kebutuhan', 'penguatan', 'identitas', 'pendukung', 'dalam', 'kelompok', 'yang', 'didukungny']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pemihakan', 'irrasional', 'biasanya', 'bersumber', 'dari', 'kebutuhan', 'penguatan', 'identitas', 'pendukung', 'dalam', 'kelompok', 'yang', 'didukungny']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['common', 'kalangan', 'rasional']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['common', 'kalang', 'rasional']</t>
+          <t>['pemihakan', 'irrasional', 'bersumber', 'kebutuhan', 'penguatan', 'identitas', 'pendukung', 'kelompok', 'didukungny']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['pihak', 'irrasional', 'sumber', 'butuh', 'kuat', 'identitas', 'dukung', 'kelompok', 'didukungny']</t>
         </is>
       </c>
     </row>
@@ -1787,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17481</v>
+        <v>28250</v>
       </c>
       <c r="C39" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tanda sesuatu yang baik adalah tak mudah dilakukan tanda sesuatu yang benar adalah tak mudah diterima tanda ses</t>
+          <t xml:space="preserve">mendukung sebuah kelompok atau memuja seseorang sekilas terlihat sebagai ekspresi kecintaan atau kepatuhan semata </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['tanda', 'sesuatu', 'yang', 'baik', 'adalah', 'tak', 'mudah', 'dilakukan', 'tanda', 'sesuatu', 'yang', 'benar', 'adalah', 'tak', 'mudah', 'diterima', 'tanda', 'ses']</t>
+          <t>['mendukung', 'sebuah', 'kelompok', 'atau', 'memuja', 'seseorang', 'sekilas', 'terlihat', 'sebagai', 'ekspresi', 'kecintaan', 'atau', 'kepatuhan', 'semata']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 18 outcomes&gt;</t>
+          <t>['mendukung', 'sebuah', 'kelompok', 'atau', 'memuja', 'seseorang', 'sekilas', 'terlihat', 'sebagai', 'ekspresi', 'kecintaan', 'atau', 'kepatuhan', 'semata']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['tanda', 'mudah', 'tanda', 'mudah', 'diterima', 'tanda', 'ses']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['tanda', 'mudah', 'tanda', 'mudah', 'terima', 'tanda', 'ses']</t>
+          <t>['mendukung', 'kelompok', 'memuja', 'sekilas', 'ekspresi', 'kecintaan', 'kepatuhan']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['dukung', 'kelompok', 'puja', 'kilas', 'ekspresi', 'cinta', 'patuh']</t>
         </is>
       </c>
     </row>
@@ -1823,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17482</v>
+        <v>28251</v>
       </c>
       <c r="C40" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>diriwayatkan bahwa suatu saat nabi musa as bertanya kepada tuhan apa tanda perbuatan baik yang tulus allah men</t>
+          <t>pelakor bagian</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['diriwayatkan', 'bahwa', 'suatu', 'saat', 'nabi', 'musa', 'as', 'bertanya', 'kepada', 'tuhan', 'apa', 'tanda', 'perbuatan', 'baik', 'yang', 'tulus', 'allah', 'men']</t>
+          <t>['pelakor', 'bagian']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['perebut, laki, orang', 'bagian']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['diriwayatkan', 'nabi', 'musa', 'as', 'tuhan', 'tanda', 'perbuatan', 'tulus', 'allah', 'men']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['riwayat', 'nabi', 'musa', 'as', 'tuhan', 'tanda', 'buat', 'tulus', 'allah', 'men']</t>
+          <t>['perebut, laki, orang']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['rebut laki orang']</t>
         </is>
       </c>
     </row>
@@ -1859,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17483</v>
+        <v>28252</v>
       </c>
       <c r="C41" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>minoritas kerap mengabaikan persekusi yang dialaminya karena dua kendala dalam proses hukum yaitu intoleransi atau pemerasan finansial</t>
+          <t>yang jelas indonesia bukan milik satu kelompok agama dan tidak berasas agama</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['minoritas', 'kerap', 'mengabaikan', 'persekusi', 'yang', 'dialaminya', 'karena', 'dua', 'kendala', 'dalam', 'proses', 'hukum', 'yaitu', 'intoleransi', 'atau', 'pemerasan', 'finansial']</t>
+          <t>['yang', 'jelas', 'indonesia', 'bukan', 'milik', 'satu', 'kelompok', 'agama', 'dan', 'tidak', 'berasas', 'agama']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['yang', 'jelas', 'indonesia', 'bukan', 'milik', 'satu', 'kelompok', 'agama', 'dan', 'tidak', 'berasas', 'agama']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['minoritas', 'kerap', 'mengabaikan', 'persekusi', 'dialaminya', 'kendala', 'proses', 'hukum', 'intoleransi', 'pemerasan', 'finansial']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['minoritas', 'kerap', 'abai', 'persekusi', 'alam', 'kendala', 'proses', 'hukum', 'intoleransi', 'peras', 'finansial']</t>
+          <t>['indonesia', 'milik', 'kelompok', 'agama', 'berasas', 'agama']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['indonesia', 'milik', 'kelompok', 'agama', 'asas', 'agama']</t>
         </is>
       </c>
     </row>
@@ -1895,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17484</v>
+        <v>28253</v>
       </c>
       <c r="C42" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>karena tak seksi alias tak disuka mayoritas hampir semua media mainstream enggan mengangkat berita seputar derita</t>
+          <t>justru dalam demokrasi parlemen dan lembaga legislatif didirikan untuk mengkritik keputusan dan peraturan pemerinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['karena', 'tak', 'seksi', 'alias', 'tak', 'disuka', 'mayoritas', 'hampir', 'semua', 'media', 'mainstream', 'enggan', 'mengangkat', 'berita', 'seputar', 'derita']</t>
+          <t>['justru', 'dalam', 'demokrasi', 'parlemen', 'dan', 'lembaga', 'legislatif', 'didirikan', 'untuk', 'mengkritik', 'keputusan', 'dan', 'peraturan', 'pemerinta']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['justru', 'dalam', 'demokrasi', 'parlemen', 'dan', 'lembaga', 'legislatif', 'didirikan', 'untuk', 'mengkritik', 'keputusan', 'dan', 'peraturan', 'pemerinta']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['seksi', 'alias', 'disuka', 'mayoritas', 'media', 'mainstream', 'enggan', 'mengangkat', 'berita', 'seputar', 'derita']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['seksi', 'alias', 'suka', 'mayoritas', 'media', 'mainstream', 'enggan', 'angkat', 'berita', 'putar', 'derita']</t>
+          <t>['demokrasi', 'parlemen', 'lembaga', 'legislatif', 'didirikan', 'mengkritik', 'keputusan', 'peraturan', 'pemerinta']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'parlemen', 'lembaga', 'legislatif', 'diri', 'kritik', 'putus', 'atur', 'pemerinta']</t>
         </is>
       </c>
     </row>
@@ -1931,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17485</v>
+        <v>28254</v>
       </c>
       <c r="C43" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>diberikan setelah jadi ex oligarki sektarian</t>
+          <t>menolak salah satu keputusan pemerintah tidak sama dengan membenci pemerintah berbeda dengan menentang pemerintah</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['diberikan', 'setelah', 'jadi', 'ex', 'oligarki', 'sektarian']</t>
+          <t>['menolak', 'salah', 'satu', 'keputusan', 'pemerintah', 'tidak', 'sama', 'dengan', 'membenci', 'pemerintah', 'berbeda', 'dengan', 'menentang', 'pemerintah']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['menolak', 'salah', 'satu', 'keputusan', 'pemerintah', 'tidak', 'sama', 'dengan', 'membenci', 'pemerintah', 'berbeda', 'dengan', 'menentang', 'pemerintah']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ex', 'oligarki', 'sektarian']</t>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ex', 'oligarki', 'sektarian']</t>
+          <t>['menolak', 'salah', 'keputusan', 'pemerintah', 'membenci', 'pemerintah', 'berbeda', 'menentang', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tolak', 'salah', 'putus', 'perintah', 'benci', 'perintah', 'beda', 'tentang', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -1967,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17486</v>
+        <v>28255</v>
       </c>
       <c r="C44" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>teman yang bodoh</t>
+          <t>akibat adrenaline romantisme pilpres yang mendorong polarisasi antara pemuja dan pembenci sikap lebay dan ekstrem</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['teman', 'yang', 'bodoh']</t>
+          <t>['akibat', 'adrenaline', 'romantisme', 'pilpres', 'yang', 'mendorong', 'polarisasi', 'antara', 'pemuja', 'dan', 'pembenci', 'sikap', 'lebay', 'dan', 'ekstrem']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['akibat', 'adrenaline', 'romantisme', 'pemilihan, presiden', 'yang', 'mendorong', 'polarisasi', 'antara', 'pemuja', 'dan', 'pembenci', 'sikap', 'lebay', 'dan', 'ekstrem']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['teman', 'bodoh']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['teman', 'bodoh']</t>
+          <t>['akibat', 'adrenaline', 'romantisme', 'pemilihan, presiden', 'mendorong', 'polarisasi', 'pemuja', 'pembenci', 'sikap', 'lebay', 'ekstrem']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['akibat', 'adrenaline', 'romantisme', 'pilih presiden', 'dorong', 'polarisasi', 'puja', 'benci', 'sikap', 'lebay', 'ekstrem']</t>
         </is>
       </c>
     </row>
@@ -2003,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17487</v>
+        <v>28256</v>
       </c>
       <c r="C45" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>hanya fatimah</t>
+          <t>lihatlah yang apa yang dikatakan jangan lihat siapa yang mengatakannya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['hanya', 'fatimah']</t>
+          <t>['lihatlah', 'yang', 'apa', 'yang', 'dikatakan', 'jangan', 'lihat', 'siapa', 'yang', 'mengatakannya']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['lihatlah', 'yang', 'apa', 'yang', 'dikatakan', 'jangan', 'lihat', 'siapa', 'yang', 'mengatakannya']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['fatimah']</t>
+          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['fatimah']</t>
+          <t>['lihatlah', 'lihat']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['lihat', 'lihat']</t>
         </is>
       </c>
     </row>
@@ -2039,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17488</v>
+        <v>28257</v>
       </c>
       <c r="C46" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>nusantara yang majemuk dandinamis</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['nusantara', 'yang', 'majemuk', 'dandinamis']</t>
+          <t>['bag']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bag']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['nusantara', 'majemuk', 'dandinamis']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['nusantara', 'majemuk', 'dandinamis']</t>
+          <t>['bag']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['bag']</t>
         </is>
       </c>
     </row>
@@ -2075,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17489</v>
+        <v>28258</v>
       </c>
       <c r="C47" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>terkurung dalam ruang bagian</t>
+          <t>majelis dan ulama</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['terkurung', 'dalam', 'ruang', 'bagian']</t>
+          <t>['majelis', 'dan', 'ulama']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['majelis', 'dan', 'ulama']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['terkurung', 'ruang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['kurung', 'ruang']</t>
+          <t>['majelis', 'ulama']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['majelis', 'ulama']</t>
         </is>
       </c>
     </row>
@@ -2111,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17490</v>
+        <v>28259</v>
       </c>
       <c r="C48" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>gemar kontroversi sibukklarifikasi</t>
+          <t>sampaikan walau satuayat</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['gemar', 'kontroversi', 'sibukklarifikasi']</t>
+          <t>['sampaikan', 'walau', 'satuayat']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['sampaikan', 'walau', 'satuayat']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['gemar', 'kontroversi', 'sibukklarifikasi']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['gemar', 'kontroversi', 'sibukklarifikasi']</t>
+          <t>['satuayat']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['satuayat']</t>
         </is>
       </c>
     </row>
@@ -2147,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17491</v>
+        <v>28260</v>
       </c>
       <c r="C49" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>nu dan revolusi intelektual gusdur</t>
+          <t>berdamai dengan dialektika</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['nu', 'dan', 'revolusi', 'intelektual', 'gusdur']</t>
+          <t>['berdamai', 'dengan', 'dialektika']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['berdamai', 'dengan', 'dialektika']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['nu', 'revolusi', 'intelektual', 'gusdur']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['nu', 'revolusi', 'intelektual', 'gusdur']</t>
+          <t>['berdamai', 'dialektika']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['damai', 'dialektika']</t>
         </is>
       </c>
     </row>
@@ -2183,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17492</v>
+        <v>28261</v>
       </c>
       <c r="C50" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>tuhan baru bagian</t>
+          <t>mata rantai falasi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['tuhan', 'baru', 'bagian']</t>
+          <t>['mata', 'rantai', 'falasi']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['mata', 'rantai', 'falasi']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['tuhan']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['tuhan']</t>
+          <t>['mata', 'rantai', 'falasi']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['mata', 'rantai', 'falasi']</t>
         </is>
       </c>
     </row>
@@ -2219,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17493</v>
+        <v>28262</v>
       </c>
       <c r="C51" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>maksud hati mengagungkan budaya sendiri malah menghina budaya lain yang diagungkan oleh bangsa lain di tempat lain</t>
+          <t>persalinan agung</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['maksud', 'hati', 'mengagungkan', 'budaya', 'sendiri', 'malah', 'menghina', 'budaya', 'lain', 'yang', 'diagungkan', 'oleh', 'bangsa', 'lain', 'di', 'tempat', 'lain']</t>
+          <t>['persalinan', 'agung']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['persalinan', 'agung']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['maksud', 'hati', 'mengagungkan', 'budaya', 'menghina', 'budaya', 'diagungkan', 'bangsa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['maksud', 'hati', 'agung', 'budaya', 'hina', 'budaya', 'agung', 'bangsa']</t>
+          <t>['persalinan', 'agung']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['salin', 'agung']</t>
         </is>
       </c>
     </row>
@@ -2255,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17494</v>
+        <v>28263</v>
       </c>
       <c r="C52" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>boleh jadi karena sibuk mengkritisi kaum intoleran tak punya waktu untuk belajar dan mengupgrade diri dengan bekal</t>
+          <t>syarat tunggal mematuhi nabisaw</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['boleh', 'jadi', 'karena', 'sibuk', 'mengkritisi', 'kaum', 'intoleran', 'tak', 'punya', 'waktu', 'untuk', 'belajar', 'dan', 'mengupgrade', 'diri', 'dengan', 'bekal']</t>
+          <t>['syarat', 'tunggal', 'mematuhi', 'nabisaw']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['syarat', 'tunggal', 'mematuhi', 'nabisaw']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['sibuk', 'mengkritisi', 'kaum', 'intoleran', 'belajar', 'mengupgrade', 'bekal']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['sibuk', 'kritisi', 'kaum', 'intoleran', 'ajar', 'mengupgrade', 'bekal']</t>
+          <t>['syarat', 'tunggal', 'mematuhi', 'nabisaw']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['syarat', 'tunggal', 'patuh', 'nabisaw']</t>
         </is>
       </c>
     </row>
@@ -2291,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17495</v>
+        <v>28264</v>
       </c>
       <c r="C53" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">seorang muslim tidak mungkin mencemooh agamanya tapi sangat mungkin bermaksud mengkritik kelompok intoleran yang </t>
+          <t>mengaku syiah</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['seorang', 'muslim', 'tidak', 'mungkin', 'mencemooh', 'agamanya', 'tapi', 'sangat', 'mungkin', 'bermaksud', 'mengkritik', 'kelompok', 'intoleran', 'yang']</t>
+          <t>['mengaku', 'syiah']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['mengaku', 'syiah']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['muslim', 'mencemooh', 'agamanya', 'mengkritik', 'kelompok', 'intoleran']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['muslim', 'cemooh', 'agama', 'kritik', 'kelompok', 'intoleran']</t>
+          <t>['mengaku', 'syiah']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['aku', 'syiah']</t>
         </is>
       </c>
     </row>
@@ -2327,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17496</v>
+        <v>28265</v>
       </c>
       <c r="C54" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>teman yang bodoh lebih berbahaya dari musuh yang cerdas ali bin abi talib</t>
+          <t>filsafat itu simpel</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['teman', 'yang', 'bodoh', 'lebih', 'berbahaya', 'dari', 'musuh', 'yang', 'cerdas', 'ali', 'bin', 'abi', 'talib']</t>
+          <t>['filsafat', 'itu', 'simpel']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['filsafat', 'itu', 'simpel']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['teman', 'bodoh', 'berbahaya', 'musuh', 'cerdas', 'ali', 'bin', 'abi', 'talib']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['teman', 'bodoh', 'bahaya', 'musuh', 'cerdas', 'ali', 'bin', 'abi', 'talib']</t>
+          <t>['filsafat', 'simpel']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['filsafat', 'simpel']</t>
         </is>
       </c>
     </row>
@@ -2363,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17497</v>
+        <v>28266</v>
       </c>
       <c r="C55" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>dalam masyarakat yang tradisi intelektualnya tak merata nilai yang dianut bukan benar atau salah tapi trend dan ti</t>
+          <t>intoleransi akut</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['dalam', 'masyarakat', 'yang', 'tradisi', 'intelektualnya', 'tak', 'merata', 'nilai', 'yang', 'dianut', 'bukan', 'benar', 'atau', 'salah', 'tapi', 'trend', 'dan', 'ti']</t>
+          <t>['intoleransi', 'akut']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['intoleransi', 'akut']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['masyarakat', 'tradisi', 'intelektualnya', 'merata', 'nilai', 'dianut', 'salah', 'trend', 'ti']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['masyarakat', 'tradisi', 'intelektual', 'rata', 'nilai', 'anut', 'salah', 'trend', 'ti']</t>
+          <t>['intoleransi', 'akut']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['intoleransi', 'akut']</t>
         </is>
       </c>
     </row>
@@ -2399,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17498</v>
+        <v>28267</v>
       </c>
       <c r="C56" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">mencemooh agama sendiri demi mengecam kelompok intoleran tidak keluar dari dua kemungkinan tendesius atau bodoh </t>
+          <t>dibayar dan dijadikan rujukan oleh pemerintah</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['mencemooh', 'agama', 'sendiri', 'demi', 'mengecam', 'kelompok', 'intoleran', 'tidak', 'keluar', 'dari', 'dua', 'kemungkinan', 'tendesius', 'atau', 'bodoh']</t>
+          <t>['dibayar', 'dan', 'dijadikan', 'rujukan', 'oleh', 'pemerintah']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dibayar', 'dan', 'dijadikan', 'rujukan', 'oleh', 'pemerintah']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['mencemooh', 'agama', 'mengecam', 'kelompok', 'intoleran', 'tendesius', 'bodoh']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['cemooh', 'agama', 'kecam', 'kelompok', 'intoleran', 'tendesius', 'bodoh']</t>
+          <t>['dibayar', 'dijadikan', 'rujukan', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['bayar', 'jadi', 'rujuk', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2435,34 +2731,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17499</v>
+        <v>28268</v>
       </c>
       <c r="C57" t="n">
-        <v>216</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>kudeta genesis bagian</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis', 'bagian']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2471,34 +2768,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17500</v>
+        <v>28269</v>
       </c>
       <c r="C58" t="n">
-        <v>216</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>kudeta genesis bagian</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis', 'bagian']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2507,34 +2805,35 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17501</v>
+        <v>28270</v>
       </c>
       <c r="C59" t="n">
-        <v>216</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>akiibat efek bawaan romantisme pilpres tak sadar bahwa polarisasi hanyalah fenomena politik sesaat</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['akiibat', 'efek', 'bawaan', 'romantisme', 'pilpres', 'tak', 'sadar', 'bahwa', 'polarisasi', 'hanyalah', 'fenomena', 'politik', 'sesaat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['akiibat', 'efek', 'bawaan', 'romantisme', 'pilpres', 'sadar', 'polarisasi', 'fenomena', 'politik']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['akiibat', 'efek', 'bawa', 'romantisme', 'pilpres', 'sadar', 'polarisasi', 'fenomena', 'politik']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2543,34 +2842,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17502</v>
+        <v>28271</v>
       </c>
       <c r="C60" t="n">
-        <v>216</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>percuma membela islam nusantara bila caranya tak selaras dengan karakter nusantara</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['percuma', 'membela', 'islam', 'nusantara', 'bila', 'caranya', 'tak', 'selaras', 'dengan', 'karakter', 'nusantara']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['membela', 'islam', 'nusantara', 'selaras', 'karakter', 'nusantara']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['bela', 'islam', 'nusantara', 'selaras', 'karakter', 'nusantara']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2579,34 +2879,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17503</v>
+        <v>28272</v>
       </c>
       <c r="C61" t="n">
-        <v>216</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>karena tak sadar keawaman dan gemar menghadirkan diri dalam kontroversi dan polemik ceroboh dalam menggunakan kata</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['karena', 'tak', 'sadar', 'keawaman', 'dan', 'gemar', 'menghadirkan', 'diri', 'dalam', 'kontroversi', 'dan', 'polemik', 'ceroboh', 'dalam', 'menggunakan', 'kata']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['sadar', 'keawaman', 'gemar', 'menghadirkan', 'kontroversi', 'polemik', 'ceroboh']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['sadar', 'awam', 'gemar', 'hadir', 'kontroversi', 'polemik', 'ceroboh']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2615,34 +2916,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17504</v>
+        <v>28273</v>
       </c>
       <c r="C62" t="n">
-        <v>216</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">seorang muslim yang bijak terutama yang sadar keawaman takkan sibuk menjadi pemadam kebakaran yang menanggapi </t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['seorang', 'muslim', 'yang', 'bijak', 'terutama', 'yang', 'sadar', 'keawaman', 'takkan', 'sibuk', 'menjadi', 'pemadam', 'kebakaran', 'yang', 'menanggapi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['muslim', 'bijak', 'sadar', 'keawaman', 'takkan', 'sibuk', 'pemadam', 'kebakaran', 'menanggapi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['muslim', 'bijak', 'sadar', 'awam', 'tak', 'sibuk', 'madam', 'bakar', 'tanggap']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2651,34 +2953,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17505</v>
+        <v>28274</v>
       </c>
       <c r="C63" t="n">
-        <v>216</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>siapapun yang hendak mengkritisi bahkan mengecam sebuah aliran atau kelompok dalam umat islam sebaiknya ridak meny</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['siapapun', 'yang', 'hendak', 'mengkritisi', 'bahkan', 'mengecam', 'sebuah', 'aliran', 'atau', 'kelompok', 'dalam', 'umat', 'islam', 'sebaiknya', 'ridak', 'meny']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['mengkritisi', 'mengecam', 'aliran', 'kelompok', 'umat', 'islam', 'ridak', 'meny']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['kritisi', 'kecam', 'alir', 'kelompok', 'umat', 'islam', 'ridak', 'meny']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2687,34 +2990,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17506</v>
+        <v>28275</v>
       </c>
       <c r="C64" t="n">
-        <v>216</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>supaya tidak sibuk klarifikasi setiap orang perlu berhatihati dalam menanggapi pandangan orang lain</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['supaya', 'tidak', 'sibuk', 'klarifikasi', 'setiap', 'orang', 'perlu', 'berhatihati', 'dalam', 'menanggapi', 'pandangan', 'orang', 'lain']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['sibuk', 'klarifikasi', 'orang', 'berhatihati', 'menanggapi', 'pandangan', 'orang']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['sibuk', 'klarifikasi', 'orang', 'berhatihati', 'tanggap', 'pandang', 'orang']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2723,34 +3027,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17507</v>
+        <v>28276</v>
       </c>
       <c r="C65" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>sebagian orang dianggap hebat bukan karena kepandaiannya tapi karena kesamaan pandangannya dengan pandangan dirinya</t>
+          <t>dunia saat ini seperti akhirat harihari ini bila seseorang mengeluhkan kesulitan ekonomi kepada seseorang seperti</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['sebagian', 'orang', 'dianggap', 'hebat', 'bukan', 'karena', 'kepandaiannya', 'tapi', 'karena', 'kesamaan', 'pandangannya', 'dengan', 'pandangan', 'dirinya']</t>
+          <t>['dunia', 'saat', 'ini', 'seperti', 'akhirat', 'harihari', 'ini', 'bila', 'seseorang', 'mengeluhkan', 'kesulitan', 'ekonomi', 'kepada', 'seseorang', 'seperti']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['dunia', 'saat', 'ini', 'seperti', 'akhirat', 'harihari', 'ini', 'bila', 'seseorang', 'mengeluhkan', 'kesulitan', 'ekonomi', 'kepada', 'seseorang', 'seperti']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['orang', 'dianggap', 'hebat', 'kepandaiannya', 'kesamaan', 'pandangannya', 'pandangan']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['orang', 'anggap', 'hebat', 'pandai', 'sama', 'pandang', 'pandang']</t>
+          <t>['dunia', 'akhirat', 'harihari', 'mengeluhkan', 'kesulitan', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['dunia', 'akhirat', 'harihari', 'keluh', 'sulit', 'ekonomi']</t>
         </is>
       </c>
     </row>
@@ -2759,34 +3068,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17508</v>
+        <v>28277</v>
       </c>
       <c r="C66" t="n">
-        <v>216</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>orang hebat menurut sebagian orang adalah yang mengafirmasi pandangan dan keyakinan yang telah dianut dan dianggap</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['orang', 'hebat', 'menurut', 'sebagian', 'orang', 'adalah', 'yang', 'mengafirmasi', 'pandangan', 'dan', 'keyakinan', 'yang', 'telah', 'dianut', 'dan', 'dianggap']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['orang', 'hebat', 'orang', 'mengafirmasi', 'pandangan', 'keyakinan', 'dianut', 'dianggap']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['orang', 'hebat', 'orang', 'afirmasi', 'pandang', 'yakin', 'anut', 'anggap']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2795,34 +3105,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17509</v>
+        <v>28278</v>
       </c>
       <c r="C67" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cara mudah mengalihkan diri dari tugas bernalar adalah memenuhi slot memori dengan tulisan dan tayangan yang hanya</t>
+          <t>kejumudan lurus dalam berteori muter dalam bertindak abai saat argumentasi mumet saat konklusi menggemari cand</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['cara', 'mudah', 'mengalihkan', 'diri', 'dari', 'tugas', 'bernalar', 'adalah', 'memenuhi', 'slot', 'memori', 'dengan', 'tulisan', 'dan', 'tayangan', 'yang', 'hanya']</t>
+          <t>['kejumudan', 'lurus', 'dalam', 'berteori', 'muter', 'dalam', 'bertindak', 'abai', 'saat', 'argumentasi', 'mumet', 'saat', 'konklusi', 'menggemari', 'cand']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kejumudan', 'lurus', 'dalam', 'berteori', 'memuter', 'dalam', 'bertindak', 'abai', 'saat', 'argumentasi', 'mumet', 'saat', 'konklusi', 'menggemari', 'cand']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['mudah', 'mengalihkan', 'tugas', 'bernalar', 'memenuhi', 'slot', 'memori', 'tulisan', 'tayangan']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['mudah', 'alih', 'tugas', 'nalar', 'penuh', 'slot', 'memori', 'tulis', 'tayang']</t>
+          <t>['kejumudan', 'lurus', 'berteori', 'memuter', 'bertindak', 'abai', 'argumentasi', 'mumet', 'konklusi', 'menggemari', 'cand']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['jumud', 'lurus', 'teori', 'puter', 'tindak', 'abai', 'argumentasi', 'mumet', 'konklusi', 'gari', 'cand']</t>
         </is>
       </c>
     </row>
@@ -2831,34 +3146,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17510</v>
+        <v>28279</v>
       </c>
       <c r="C68" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>banyak yang rela menghabiskan waktu dan menghamburkan uang hanya demi melumpuhkan nalar dengan menonton tayangan vi</t>
+          <t xml:space="preserve">cermin yang terlihat baik pada dirinya oleh dirimu adalah dirimu yang terlihat buruk pada dirinya oleh dirimu </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['banyak', 'yang', 'rela', 'menghabiskan', 'waktu', 'dan', 'menghamburkan', 'uang', 'hanya', 'demi', 'melumpuhkan', 'nalar', 'dengan', 'menonton', 'tayangan', 'vi']</t>
+          <t>['cermin', 'yang', 'terlihat', 'baik', 'pada', 'dirinya', 'oleh', 'dirimu', 'adalah', 'dirimu', 'yang', 'terlihat', 'buruk', 'pada', 'dirinya', 'oleh', 'dirimu']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['cermin', 'yang', 'terlihat', 'baik', 'pada', 'dirinya', 'oleh', 'dirimu', 'adalah', 'dirimu', 'yang', 'terlihat', 'buruk', 'pada', 'dirinya', 'oleh', 'dirimu']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['rela', 'menghabiskan', 'menghamburkan', 'uang', 'melumpuhkan', 'nalar', 'menonton', 'tayangan', 'vi']</t>
+          <t>&lt;FreqDist with 10 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['rela', 'habis', 'hambur', 'uang', 'lumpuh', 'nalar', 'tonton', 'tayang', 'vi']</t>
+          <t>['cermin', 'dirimu', 'dirimu', 'buruk', 'dirimu']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['cermin', 'diri', 'diri', 'buruk', 'diri']</t>
         </is>
       </c>
     </row>
@@ -2867,34 +3187,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17511</v>
+        <v>28280</v>
       </c>
       <c r="C69" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>sebagian orang jadi tenar bukan karena memiliki keunggulan tapi karena rela melakukan aksi yang kebanyakan orang be</t>
+          <t>yang cedera di lapangan dan yang teriak daritribun</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['sebagian', 'orang', 'jadi', 'tenar', 'bukan', 'karena', 'memiliki', 'keunggulan', 'tapi', 'karena', 'rela', 'melakukan', 'aksi', 'yang', 'kebanyakan', 'orang', 'be']</t>
+          <t>['yang', 'cedera', 'di', 'lapangan', 'dan', 'yang', 'teriak', 'daritribun']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['yang', 'cedera', 'di', 'lapangan', 'dan', 'yang', 'teriak', 'daritribun']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['orang', 'tenar', 'memiliki', 'keunggulan', 'rela', 'aksi', 'kebanyakan', 'orang', 'be']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['orang', 'tenar', 'milik', 'unggul', 'rela', 'aksi', 'banyak', 'orang', 'be']</t>
+          <t>['cedera', 'lapangan', 'teriak', 'daritribun']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['cedera', 'lapang', 'teriak', 'daritribun']</t>
         </is>
       </c>
     </row>
@@ -2903,34 +3228,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17512</v>
+        <v>28281</v>
       </c>
       <c r="C70" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>orang bodoh mengira toleransi berarti mencemooh keyakinan sendiri</t>
+          <t>iman kebangsaan dan teologikemanusiaan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'mengira', 'toleransi', 'berarti', 'mencemooh', 'keyakinan', 'sendiri']</t>
+          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'toleransi', 'mencemooh', 'keyakinan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'toleransi', 'cemooh', 'yakin']</t>
+          <t>['iman', 'kebangsaan', 'teologikemanusiaan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['iman', 'bangsa', 'teologikemanusiaan']</t>
         </is>
       </c>
     </row>
@@ -2939,34 +3269,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17513</v>
+        <v>28282</v>
       </c>
       <c r="C71" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>orang bodoh mengira toleransi berarti mencemooh keyakinan sendiri</t>
+          <t>percaya</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'mengira', 'toleransi', 'berarti', 'mencemooh', 'keyakinan', 'sendiri']</t>
+          <t>['percaya']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['percaya']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'toleransi', 'mencemooh', 'keyakinan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['orang', 'bodoh', 'toleransi', 'cemooh', 'yakin']</t>
+          <t>['percaya']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['percaya']</t>
         </is>
       </c>
     </row>
@@ -2975,34 +3310,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17514</v>
+        <v>28283</v>
       </c>
       <c r="C72" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>sosmed bisa menjadikan komedian lebih berpengaruh terhadap opini publik ketimbang orang bernalar</t>
+          <t>sensasi imajinasi daninteleksi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['sosmed', 'bisa', 'menjadikan', 'komedian', 'lebih', 'berpengaruh', 'terhadap', 'opini', 'publik', 'ketimbang', 'orang', 'bernalar']</t>
+          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['sosmed', 'menjadikan', 'komedian', 'berpengaruh', 'opini', 'publik', 'ketimbang', 'orang', 'bernalar']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['sosmed', 'jadi', 'komedian', 'pengaruh', 'opini', 'publik', 'ketimbang', 'orang', 'nalar']</t>
+          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['sensasi', 'imajinasi', 'daninteleksi']</t>
         </is>
       </c>
     </row>
@@ -3011,34 +3351,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17515</v>
+        <v>28284</v>
       </c>
       <c r="C73" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kudeta genesis bag</t>
+          <t>be happy</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis', 'bag']</t>
+          <t>['be', 'happy']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['be', 'happy']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis', 'bag']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kudeta', 'genesis', 'bag']</t>
+          <t>['be', 'happy']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['be', 'happy']</t>
         </is>
       </c>
     </row>
@@ -3047,34 +3392,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17516</v>
+        <v>28285</v>
       </c>
       <c r="C74" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>antara radikalisme dansaintisme</t>
+          <t>pamrihlah dalam keburukan karena kalau tulus pasti tak dapat pahala</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['antara', 'radikalisme', 'dansaintisme']</t>
+          <t>['pamrihlah', 'dalam', 'keburukan', 'karena', 'kalau', 'tulus', 'pasti', 'tak', 'dapat', 'pahala']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pamrihlah', 'dalam', 'keburukan', 'karena', 'kalau', 'tulus', 'pasti', 'tak', 'dapat', 'pahala']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['radikalisme', 'dansaintisme']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['radikalisme', 'dansaintisme']</t>
+          <t>['pamrihlah', 'keburukan', 'tulus', 'pahala']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['pamrih', 'keburu', 'tulus', 'pahala']</t>
         </is>
       </c>
     </row>
@@ -3083,34 +3433,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17517</v>
+        <v>28286</v>
       </c>
       <c r="C75" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>antara tulus dalam keburukan dan pamrih dalamkebaikan</t>
+          <t>hak memilih sesat</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['antara', 'tulus', 'dalam', 'keburukan', 'dan', 'pamrih', 'dalamkebaikan']</t>
+          <t>['hak', 'memilih', 'sesat']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['hak', 'memilih', 'sesat']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['tulus', 'keburukan', 'pamrih', 'dalamkebaikan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['tulus', 'keburu', 'pamrih', 'dalamkebaikan']</t>
+          <t>['hak', 'memilih', 'sesat']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['hak', 'pilih', 'sesat']</t>
         </is>
       </c>
     </row>
@@ -3119,34 +3474,35 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17518</v>
+        <v>28287</v>
       </c>
       <c r="C76" t="n">
-        <v>216</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>jilbab bagi nonmuslimah</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['jilbab', 'bagi', 'nonmuslimah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['jilbab', 'nonmuslimah']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['jilbab', 'nonmuslimah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3155,34 +3511,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17519</v>
+        <v>28288</v>
       </c>
       <c r="C77" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>manusia bertulang yang tak produkfif pun mengalami kemusnaan sistemik oleh depopulasi akibat pandemi yang silih ber</t>
+          <t>iman kebangsaan dan teologikemanusiaan</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['manusia', 'bertulang', 'yang', 'tak', 'produkfif', 'pun', 'mengalami', 'kemusnaan', 'sistemik', 'oleh', 'depopulasi', 'akibat', 'pandemi', 'yang', 'silih', 'ber']</t>
+          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['iman', 'kebangsaan', 'dan', 'teologikemanusiaan']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['manusia', 'bertulang', 'produkfif', 'mengalami', 'kemusnaan', 'sistemik', 'depopulasi', 'akibat', 'pandemi', 'silih', 'ber']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['manusia', 'tulang', 'produkfif', 'alami', 'kemusnaan', 'sistemik', 'depopulasi', 'akibat', 'pandemi', 'silih', 'ber']</t>
+          <t>['iman', 'kebangsaan', 'teologikemanusiaan']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['iman', 'bangsa', 'teologikemanusiaan']</t>
         </is>
       </c>
     </row>
@@ -3191,34 +3552,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17520</v>
+        <v>28289</v>
       </c>
       <c r="C78" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>membayankan kehidupan homo sapien tahun mendatang ketika sains mencapai tingkat akurasi maksimum mampu menciptak</t>
+          <t>terkurung dalam ruang bagian</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['membayankan', 'kehidupan', 'homo', 'sapien', 'tahun', 'mendatang', 'ketika', 'sains', 'mencapai', 'tingkat', 'akurasi', 'maksimum', 'mampu', 'menciptak']</t>
+          <t>['terkurung', 'dalam', 'ruang', 'bagian']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['terkurung', 'dalam', 'ruang', 'bagian']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['membayankan', 'kehidupan', 'homo', 'sapien', 'sains', 'mencapai', 'tingkat', 'akurasi', 'maksimum', 'menciptak']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['bayan', 'hidup', 'homo', 'sapien', 'sains', 'capai', 'tingkat', 'akurasi', 'maksimum', 'menciptak']</t>
+          <t>['terkurung', 'ruang']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kurung', 'ruang']</t>
         </is>
       </c>
     </row>
@@ -3227,34 +3593,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17521</v>
+        <v>28290</v>
       </c>
       <c r="C79" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>melewati pintu tol terlihat ruang berkaca itu kosong di dalamnya tak ada lagi manusia berseragam tak ada lagi kom</t>
+          <t>imunisasi internal</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['melewati', 'pintu', 'tol', 'terlihat', 'ruang', 'berkaca', 'itu', 'kosong', 'di', 'dalamnya', 'tak', 'ada', 'lagi', 'manusia', 'berseragam', 'tak', 'ada', 'lagi', 'kom']</t>
+          <t>['imunisasi', 'internal']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['imunisasi', 'internal']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['melewati', 'pintu', 'tol', 'ruang', 'berkaca', 'kosong', 'dalamnya', 'manusia', 'berseragam', 'kom']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['lewat', 'pintu', 'tol', 'ruang', 'kaca', 'kosong', 'dalam', 'manusia', 'seragam', 'kom']</t>
+          <t>['imunisasi', 'internal']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['imunisasi', 'internal']</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3634,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17522</v>
+        <v>28291</v>
       </c>
       <c r="C80" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -3276,15 +3647,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3295,34 +3671,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17523</v>
+        <v>28292</v>
       </c>
       <c r="C81" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kelompok yang terlihat atau mengaku sangat relijius justru biasanya tak beragama secara jujur dan rasional serta me</t>
+          <t>berada di puncak ketenaran satu dari ikon intelektualisme islam di indonesia dengan sederet keunggul</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['kelompok', 'yang', 'terlihat', 'atau', 'mengaku', 'sangat', 'relijius', 'justru', 'biasanya', 'tak', 'beragama', 'secara', 'jujur', 'dan', 'rasional', 'serta', 'me']</t>
+          <t>['berada', 'di', 'puncak', 'ketenaran', 'satu', 'dari', 'ikon', 'intelektualisme', 'islam', 'di', 'indonesia', 'dengan', 'sederet', 'keunggul']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['berada', 'di', 'puncak', 'ketenaran', 'satu', 'dari', 'ikon', 'intelektualisme', 'islam', 'di', 'indonesia', 'dengan', 'sederet', 'keunggul']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['kelompok', 'mengaku', 'relijius', 'beragama', 'jujur', 'rasional', 'me']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['kelompok', 'aku', 'relijius', 'agama', 'jujur', 'rasional', 'me']</t>
+          <t>['puncak', 'ketenaran', 'ikon', 'intelektualisme', 'islam', 'indonesia', 'sederet', 'keunggul']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['puncak', 'tenar', 'ikon', 'intelektualisme', 'islam', 'indonesia', 'deret', 'unggul']</t>
         </is>
       </c>
     </row>
@@ -3331,34 +3712,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17524</v>
+        <v>28293</v>
       </c>
       <c r="C82" t="n">
-        <v>216</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>kezaliman paling keji adalah yang  dilakukan secara komunal alias berjamaah  berlaku lama hingga kadang korban</t>
-        </is>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kezaliman', 'paling', 'keji', 'adalah', 'yang', 'dilakukan', 'secara', 'komunal', 'alias', 'berjamaah', 'berlaku', 'lama', 'hingga', 'kadang', 'korban']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kezaliman', 'keji', 'komunal', 'alias', 'berjamaah', 'berlaku', 'kadang', 'korban']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['zalim', 'keji', 'komunal', 'alias', 'jamaah', 'laku', 'kadang', 'korban']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3367,34 +3749,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17525</v>
+        <v>28294</v>
       </c>
       <c r="C83" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>kebenaran yang dipaksakan apalagi kebenaran yang tidak disepakati oleh seluruh manusia dan hanya dipercaya sebagai</t>
+          <t>makin modern makin percaya ramalan dunia jungkir balik</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['kebenaran', 'yang', 'dipaksakan', 'apalagi', 'kebenaran', 'yang', 'tidak', 'disepakati', 'oleh', 'seluruh', 'manusia', 'dan', 'hanya', 'dipercaya', 'sebagai']</t>
+          <t>['makin', 'modern', 'makin', 'percaya', 'ramalan', 'dunia', 'jungkir', 'balik']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['makin', 'modern', 'makin', 'percaya', 'ramalan', 'dunia', 'jungkir', 'balik']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['kebenaran', 'dipaksakan', 'kebenaran', 'disepakati', 'manusia', 'dipercaya']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['benar', 'paksa', 'benar', 'pakat', 'manusia', 'percaya']</t>
+          <t>['modern', 'percaya', 'ramalan', 'dunia', 'jungkir']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['modern', 'percaya', 'ramal', 'dunia', 'jungkir']</t>
         </is>
       </c>
     </row>
@@ -3403,34 +3790,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17526</v>
+        <v>28295</v>
       </c>
       <c r="C84" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">kebaikan yang dipaksakan apalagi kebaikan yang tidak disepakati oleh seluruh manusia dan hanya dipercaya sebagai </t>
+          <t>beberapa waktu lalu bakteri hanya menyerang orangorang kelas alit yang hanya menyantap makanan alot kini orango</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['kebaikan', 'yang', 'dipaksakan', 'apalagi', 'kebaikan', 'yang', 'tidak', 'disepakati', 'oleh', 'seluruh', 'manusia', 'dan', 'hanya', 'dipercaya', 'sebagai']</t>
+          <t>['beberapa', 'waktu', 'lalu', 'bakteri', 'hanya', 'menyerang', 'orangorang', 'kelas', 'alit', 'yang', 'hanya', 'menyantap', 'makanan', 'alot', 'kini', 'orango']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['beberapa', 'waktu', 'lalu', 'bakteri', 'hanya', 'menyerang', 'orangorang', 'kelas', 'alit', 'yang', 'hanya', 'menyantap', 'makanan', 'alot', 'kini', 'orango']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['kebaikan', 'dipaksakan', 'kebaikan', 'disepakati', 'manusia', 'dipercaya']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['baik', 'paksa', 'baik', 'pakat', 'manusia', 'percaya']</t>
+          <t>['bakteri', 'menyerang', 'orangorang', 'kelas', 'alit', 'menyantap', 'makanan', 'alot', 'orango']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['bakteri', 'serang', 'orangorang', 'kelas', 'alit', 'santap', 'makan', 'alot', 'orango']</t>
         </is>
       </c>
     </row>
@@ -3439,34 +3831,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17527</v>
+        <v>28296</v>
       </c>
       <c r="C85" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>bila agama hanya bisa diterima tanpa akal tak layak dianut</t>
+          <t>beberapa waktu lalu kecemasan adalah hak eksklusif kelompok yang lolos dari kemakmuran kini orangorang yang lolos</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['bila', 'agama', 'hanya', 'bisa', 'diterima', 'tanpa', 'akal', 'tak', 'layak', 'dianut']</t>
+          <t>['beberapa', 'waktu', 'lalu', 'kecemasan', 'adalah', 'hak', 'eksklusif', 'kelompok', 'yang', 'lolos', 'dari', 'kemakmuran', 'kini', 'orangorang', 'yang', 'lolos']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['beberapa', 'waktu', 'lalu', 'kecemasan', 'adalah', 'hak', 'eksklusif', 'kelompok', 'yang', 'lolos', 'dari', 'kemakmuran', 'kini', 'orangorang', 'yang', 'lolos']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['agama', 'diterima', 'akal', 'layak', 'dianut']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['agama', 'terima', 'akal', 'layak', 'anut']</t>
+          <t>['kecemasan', 'hak', 'eksklusif', 'kelompok', 'lolos', 'kemakmuran', 'orangorang', 'lolos']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['cemas', 'hak', 'eksklusif', 'kelompok', 'lolos', 'makmur', 'orangorang', 'lolos']</t>
         </is>
       </c>
     </row>
@@ -3475,34 +3872,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17528</v>
+        <v>28297</v>
       </c>
       <c r="C86" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>bila agama hanya bisa diterima tanpa akal salah satunya mubazir</t>
+          <t>gong xi fa cai</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['bila', 'agama', 'hanya', 'bisa', 'diterima', 'tanpa', 'akal', 'salah', 'satunya', 'mubazir']</t>
+          <t>['gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['agama', 'diterima', 'akal', 'salah', 'satunya', 'mubazir']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['agama', 'terima', 'akal', 'salah', 'satu', 'mubazir']</t>
+          <t>['gong', 'xi', 'fa', 'cai']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
     </row>
@@ -3511,34 +3913,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17529</v>
+        <v>28298</v>
       </c>
       <c r="C87" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>bila agama hanya bisa diterima tanpa akal agama buat hewan dan akal buat manusia</t>
+          <t>semoga bulan rajab menjadi momentum titik balik menuju keadaan lebih baik bagi kita secara lahir dan batin</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['bila', 'agama', 'hanya', 'bisa', 'diterima', 'tanpa', 'akal', 'agama', 'buat', 'hewan', 'dan', 'akal', 'buat', 'manusia']</t>
+          <t>['semoga', 'bulan', 'rajab', 'menjadi', 'momentum', 'titik', 'balik', 'menuju', 'keadaan', 'lebih', 'baik', 'bagi', 'kita', 'secara', 'lahir', 'dan', 'batin']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
+          <t>['semoga', 'bulan', 'rajab', 'menjadi', 'momentum', 'titik', 'balik', 'menuju', 'keadaan', 'lebih', 'baik', 'bagi', 'kita', 'secara', 'lahir', 'dan', 'batin']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['agama', 'diterima', 'akal', 'agama', 'hewan', 'akal', 'manusia']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['agama', 'terima', 'akal', 'agama', 'hewan', 'akal', 'manusia']</t>
+          <t>['semoga', 'rajab', 'momentum', 'titik', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['moga', 'rajab', 'momentum', 'titik', 'lahir', 'batin']</t>
         </is>
       </c>
     </row>
@@ -3547,34 +3954,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17530</v>
+        <v>28299</v>
       </c>
       <c r="C88" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>bila agama hanya bisa diterima tanpa akal ia diturukan untuk hewan</t>
+          <t>siapapun dia dan apapun kesalahan yang dituduhkan terhadapnya kematian seorang tahanan adalah tragedi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['bila', 'agama', 'hanya', 'bisa', 'diterima', 'tanpa', 'akal', 'ia', 'diturukan', 'untuk', 'hewan']</t>
+          <t>['siapapun', 'dia', 'dan', 'apapun', 'kesalahan', 'yang', 'dituduhkan', 'terhadapnya', 'kematian', 'seorang', 'tahanan', 'adalah', 'tragedi']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['siapapun', 'dia', 'dan', 'apapun', 'kesalahan', 'yang', 'dituduhkan', 'terhadapnya', 'kematian', 'seorang', 'tahanan', 'adalah', 'tragedi']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['agama', 'diterima', 'akal', 'diturukan', 'hewan']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['agama', 'terima', 'akal', 'diturukan', 'hewan']</t>
+          <t>['apapun', 'kesalahan', 'dituduhkan', 'kematian', 'tahanan', 'tragedi']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['apa', 'salah', 'tuduh', 'mati', 'tahan', 'tragedi']</t>
         </is>
       </c>
     </row>
@@ -3583,34 +3995,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17531</v>
+        <v>28300</v>
       </c>
       <c r="C89" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>hal terbaik yang bisa dilakukan saat hujan turun adalah membiarkannya turun henry wadsworth longfellow</t>
+          <t>setiap orang bisa menciptakan dunia sempit pengap dan bising yang hanya diisi orangorang yang sesuku seetnis se</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['hal', 'terbaik', 'yang', 'bisa', 'dilakukan', 'saat', 'hujan', 'turun', 'adalah', 'membiarkannya', 'turun', 'henry', 'wadsworth', 'longfellow']</t>
+          <t>['setiap', 'orang', 'bisa', 'menciptakan', 'dunia', 'sempit', 'pengap', 'dan', 'bising', 'yang', 'hanya', 'diisi', 'orangorang', 'yang', 'sesuku', 'seetnis', 'se']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['setiap', 'orang', 'bisa', 'menciptakan', 'dunia', 'sempit', 'pengap', 'dan', 'bising', 'yang', 'hanya', 'diisi', 'orangorang', 'yang', 'sesuku', 'seetnis', 'se']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['terbaik', 'hujan', 'turun', 'membiarkannya', 'turun', 'henry', 'wadsworth', 'longfellow']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['baik', 'hujan', 'turun', 'biar', 'turun', 'henry', 'wadsworth', 'longfellow']</t>
+          <t>['orang', 'menciptakan', 'dunia', 'sempit', 'pengap', 'bising', 'diisi', 'orangorang', 'sesuku', 'seetnis']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['orang', 'cipta', 'dunia', 'sempit', 'pengap', 'bising', 'isi', 'orangorang', 'suku', 'etnis']</t>
         </is>
       </c>
     </row>
@@ -3619,30 +4036,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17532</v>
+        <v>28301</v>
       </c>
       <c r="C90" t="n">
-        <v>216</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>bisikan negatif</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bisikan', 'negatif']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bisikan', 'negatif']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bisikan', 'negatif']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['bisik', 'negatif']</t>
         </is>
       </c>
     </row>
@@ -3651,34 +4077,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17533</v>
+        <v>28302</v>
       </c>
       <c r="C91" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>paradoks negeri mayoritasmuslim</t>
+          <t>memuji justru karena takmengikuti</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['paradoks', 'negeri', 'mayoritasmuslim']</t>
+          <t>['memuji', 'justru', 'karena', 'takmengikuti']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['memuji', 'justru', 'karena', 'takmengikuti']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['paradoks', 'negeri', 'mayoritasmuslim']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['paradoks', 'negeri', 'mayoritasmuslim']</t>
+          <t>['memuji', 'takmengikuti']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['puji', 'takmengikuti']</t>
         </is>
       </c>
     </row>
@@ -3687,34 +4118,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17534</v>
+        <v>28303</v>
       </c>
       <c r="C92" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>dari mana di mana dan kemana</t>
+          <t>khumus dan ujiankonsistensi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['dari', 'mana', 'di', 'mana', 'dan', 'kemana']</t>
+          <t>['khumus', 'dan', 'ujiankonsistensi']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['khumus', 'dan', 'ujiankonsistensi']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['kemana']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['mana']</t>
+          <t>['khumus', 'ujiankonsistensi']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['khumus', 'ujiankonsistensi']</t>
         </is>
       </c>
     </row>
@@ -3723,34 +4159,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17535</v>
+        <v>28304</v>
       </c>
       <c r="C93" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>buhulan rindu</t>
+          <t>menolak poligami</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['buhulan', 'rindu']</t>
+          <t>['menolak', 'poligami']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['menolak', 'poligami']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['buhulan', 'rindu']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['buhul', 'rindu']</t>
+          <t>['menolak', 'poligami']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['tolak', 'poligami']</t>
         </is>
       </c>
     </row>
@@ -3759,34 +4200,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17536</v>
+        <v>28305</v>
       </c>
       <c r="C94" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>habib bukan ahlulbait bagian</t>
+          <t>nasib minoritas aliran</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['habib', 'bukan', 'ahlulbait', 'bagian']</t>
+          <t>['nasib', 'minoritas', 'aliran']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['nasib', 'minoritas', 'aliran']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['habib', 'ahlulbait']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['habib', 'ahlulbait']</t>
+          <t>['nasib', 'minoritas', 'aliran']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['nasib', 'minoritas', 'alir']</t>
         </is>
       </c>
     </row>
@@ -3795,34 +4241,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17537</v>
+        <v>28306</v>
       </c>
       <c r="C95" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>terkurung dalam ruang bagian</t>
+          <t>ngaji manifesto</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['terkurung', 'dalam', 'ruang', 'bagian']</t>
+          <t>['ngaji', 'manifesto']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mengaji', 'manifesto']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['terkurung', 'ruang']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['kurung', 'ruang']</t>
+          <t>['mengaji', 'manifesto']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['aji', 'manifesto']</t>
         </is>
       </c>
     </row>
@@ -3831,34 +4282,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17538</v>
+        <v>28307</v>
       </c>
       <c r="C96" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>beruntunglah orang yang sadar dari mana di mana dan ke mana ali</t>
+          <t>orang kerdil tak membuktikan kebenaran keyakinannya dengan argumentasi tapi memfitnah mencemooh dan menyesatkan keyakinan lain</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['beruntunglah', 'orang', 'yang', 'sadar', 'dari', 'mana', 'di', 'mana', 'dan', 'ke', 'mana', 'ali']</t>
+          <t>['orang', 'kerdil', 'tak', 'membuktikan', 'kebenaran', 'keyakinannya', 'dengan', 'argumentasi', 'tapi', 'memfitnah', 'mencemooh', 'dan', 'menyesatkan', 'keyakinan', 'lain']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['orang', 'kerdil', 'tak', 'membuktikan', 'kebenaran', 'keyakinannya', 'dengan', 'argumentasi', 'tapi', 'memfitnah', 'mencemooh', 'dan', 'menyesatkan', 'keyakinan', 'lain']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['beruntunglah', 'orang', 'sadar', 'ali']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['untung', 'orang', 'sadar', 'ali']</t>
+          <t>['orang', 'kerdil', 'membuktikan', 'kebenaran', 'keyakinannya', 'argumentasi', 'memfitnah', 'mencemooh', 'menyesatkan', 'keyakinan']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['orang', 'kerdil', 'bukti', 'benar', 'yakin', 'argumentasi', 'fitnah', 'cemooh', 'sesat', 'yakin']</t>
         </is>
       </c>
     </row>
@@ -3867,30 +4323,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17539</v>
+        <v>28308</v>
       </c>
       <c r="C97" t="n">
-        <v>216</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>orang pamrih menganggap kebaikannya sebagai piutang yang harus ditagihnya orang tulus menganggap kebaikannya sebag</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['orang', 'pamrih', 'menganggap', 'kebaikannya', 'sebagai', 'piutang', 'yang', 'harus', 'ditagihnya', 'orang', 'tulus', 'menganggap', 'kebaikannya', 'sebag']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['orang', 'pamrih', 'menganggap', 'kebaikannya', 'sebagai', 'piutang', 'yang', 'harus', 'ditagihnya', 'orang', 'tulus', 'menganggap', 'kebaikannya', 'sebag']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['orang', 'pamrih', 'menganggap', 'kebaikannya', 'piutang', 'ditagihnya', 'orang', 'tulus', 'menganggap', 'kebaikannya', 'sebag']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['orang', 'pamrih', 'anggap', 'baik', 'piutang', 'tagih', 'orang', 'tulus', 'anggap', 'baik', 'sebag']</t>
         </is>
       </c>
     </row>
@@ -3899,30 +4364,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17540</v>
+        <v>28309</v>
       </c>
       <c r="C98" t="n">
-        <v>216</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>tertulis pada kaca belakang sebuah angkot tertulis</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tertulis', 'pada', 'kaca', 'belakang', 'sebuah', 'angkot', 'tertulis']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tertulis', 'pada', 'kaca', 'belakang', 'sebuah', 'angkutan, kota', 'tertulis']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tertulis', 'kaca', 'angkutan, kota', 'tertulis']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['tulis', 'kaca', 'angkut kota', 'tulis']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4405,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17541</v>
+        <v>28310</v>
       </c>
       <c r="C99" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>banyak orang sibuk membaca sebuah tulisan tanpa berusaha memahami makna tanda baca koma titik tanda petik tanda</t>
+          <t>langit dan bumi tak mampu menampungku namun hati seorang mukmin mampu menampungku hadis qudsi awali alali vol hal</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['banyak', 'orang', 'sibuk', 'membaca', 'sebuah', 'tulisan', 'tanpa', 'berusaha', 'memahami', 'makna', 'tanda', 'baca', 'koma', 'titik', 'tanda', 'petik', 'tanda']</t>
+          <t>['langit', 'dan', 'bumi', 'tak', 'mampu', 'menampungku', 'namun', 'hati', 'seorang', 'mukmin', 'mampu', 'menampungku', 'hadis', 'qudsi', 'awali', 'alali', 'vol', 'hal']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['langit', 'dan', 'bumi', 'tak', 'mampu', 'menampungku', 'namun', 'hati', 'seorang', 'mukmin', 'mampu', 'menampungku', 'hadis', 'qudsi', 'awali', 'alali', 'vol', 'hal']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['orang', 'sibuk', 'membaca', 'tulisan', 'berusaha', 'memahami', 'makna', 'tanda', 'baca', 'koma', 'titik', 'tanda', 'petik', 'tanda']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['orang', 'sibuk', 'baca', 'tulis', 'usaha', 'paham', 'makna', 'tanda', 'baca', 'koma', 'titik', 'tanda', 'petik', 'tanda']</t>
+          <t>['langit', 'bumi', 'menampungku', 'hati', 'mukmin', 'menampungku', 'hadis', 'qudsi', 'awali', 'alali', 'vol']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['langit', 'bumi', 'tampung', 'hati', 'mukmin', 'tampung', 'hadis', 'qudsi', 'awal', 'alali', 'vol']</t>
         </is>
       </c>
     </row>
@@ -3967,70 +4446,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17542</v>
+        <v>28311</v>
       </c>
       <c r="C100" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>bencana beruntun dan keputusantuhan</t>
+          <t>common di kalangan rasional saja</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['bencana', 'beruntun', 'dan', 'keputusantuhan']</t>
+          <t>['common', 'di', 'kalangan', 'rasional', 'saja']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['common', 'di', 'kalangan', 'rasional', 'saja']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['bencana', 'beruntun', 'keputusantuhan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['bencana', 'untun', 'keputusantuhan']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>17543</v>
-      </c>
-      <c r="C101" t="n">
-        <v>216</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>jangan sebut butuh itucinta</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['jangan', 'sebut', 'butuh', 'itucinta']</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['butuh', 'itucinta']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['butuh', 'itucinta']</t>
+          <t>['common', 'kalangan', 'rasional']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['common', 'kalang', 'rasional']</t>
         </is>
       </c>
     </row>
